--- a/final report/precisionRate_rfr.xlsx
+++ b/final report/precisionRate_rfr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AD097423-9D16-4BA5-8518-B4216691998A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BF061A-AFE3-4B9B-A24D-E044D56E598C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_rfr" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,76 @@
     <sheet name="通訊" sheetId="5" r:id="rId5"/>
     <sheet name="統整" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_rfr!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_rfr!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_rfr!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_rfr!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_rfr!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">半導體!$G$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -199,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -841,9 +910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,6 +923,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,6 +987,5998 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Random Forest Regressor</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50847457627118597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53559322033898249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62648449210192503</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66949152542372792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.75170068027210801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.53898305084745701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59745762711864381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64067796610169447</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70847457627118604</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77133105802047697</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.50847457627118597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58466575606620574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66124750747756655</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70310734463276769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72203389830508402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.55593220338982996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64915254237288122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69915026415447157</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71407606448945793</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72881355932203296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-29B1-4FAD-9AC5-DF2F2C32CA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="391174768"/>
+        <c:axId val="390884608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="391174768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390884608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390884608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="391174768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Regressor</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Regressor</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F4CF080D-EDBA-1741-B33E-450E9621B86C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E0F09A5D-0C3C-3D40-8494-B0946697EE17}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{89BD0F1E-215A-E643-B991-F276CA2E9FCD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43693AE2-A7CB-9344-834E-9394CBAAF0C2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{408463F6-5FBD-8945-87F9-F7891E6F40EE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.30000000000000004"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.6</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.8</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.12</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Regressor_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Regressor_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A02CB2B8-7B03-D247-AAF0-C611372C6D2E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{74AF8AB2-47B5-1E4B-BFC8-91ECEDFF55ED}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{34A6214B-22F9-C04B-86D1-4AC2AD9D114F}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.9</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7E32B741-0E36-C146-8CE1-F97E075DB2EF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.11</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C7CCC7B7-9121-804C-864F-512E11836C7E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.15</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.17</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.22</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Regressor_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 食品</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6A7E3985-9FDA-834B-BC89-F3AC87167448}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.14</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{658CE1E7-E440-E146-9A95-B8E30AE28AF2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.16</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{80B18E32-C653-AD47-81BD-412951774884}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.18</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{83F24693-E1E3-6B48-8C3A-65FC26068ACE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{505EAF55-28B1-9D44-BB3F-BEB87A5F6A01}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.24</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.28</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.30</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.31</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Regressor_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 航運</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{172FCCFA-A902-044A-9A7A-4C1D869C6563}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EC027917-F8B2-A14B-9100-5FA4BDD394AA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{73131FC4-1D7E-EE42-8517-DDFC3D6D5A5D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.27</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D66FC4E5-57A4-DA46-B351-A4FA50F316A8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.29</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C1C493EE-73F1-EE4A-8D6B-E20F3AF3C377}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.90000000000000002" min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.33</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.35</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.37</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.39</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.40</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Regressor_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 通訊</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{DBF41E30-54F8-C34F-8C5F-24B095D90E95}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.32</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F6232872-D241-9549-943E-11FC59B1E890}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.34</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{EE946988-A919-FD46-A64B-D7C07C606F43}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.36</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3EFF4DD6-FC17-154E-8C7F-C6534B012024}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.38</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{A3538F2D-BA4A-9F4D-9660-98B8968F2EF4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="0.85000000000000009" min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.51</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.53</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Regressor</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Regressor</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{F4CF080D-EDBA-1741-B33E-450E9621B86C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E0F09A5D-0C3C-3D40-8494-B0946697EE17}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{89BD0F1E-215A-E643-B991-F276CA2E9FCD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{43693AE2-A7CB-9344-834E-9394CBAAF0C2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{408463F6-5FBD-8945-87F9-F7891E6F40EE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.30000000000000004"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A167456E-D90D-2D78-3C39-B2618CA2B746}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6740525" y="3117850"/>
+              <a:ext cx="4594225" cy="2832100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23356CAD-6546-3138-60AC-CDC0B7017CA1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4699000" y="4889500"/>
+              <a:ext cx="4594225" cy="2825750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A1970D-278B-4507-B0C5-3032FF18B77A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5210175" y="4324350"/>
+              <a:ext cx="4594225" cy="2832100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>336550</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA34BB41-2595-4DAF-CC8C-24D160DCBA5C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5746750" y="4362450"/>
+              <a:ext cx="4594225" cy="2832100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70DF824F-F56E-5DF5-9204-7446389893DF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5949950" y="4572000"/>
+              <a:ext cx="4594225" cy="2832100"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A67D7834-DEC0-EE45-95A5-468E62B3AD1D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5715000" y="2095500"/>
+              <a:ext cx="4594225" cy="2825750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>65225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>84275</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA5D4CE-0B38-41E3-9D8F-FC130F05B2EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,14 +7277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" activeCellId="4" sqref="B2:B41 C2:C41 G2:G41 H2:H41 I2:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5213,18 +11274,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -6889,18 +12951,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -8565,18 +14628,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -10241,18 +16305,19 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+    <sheetView topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
@@ -11917,427 +17982,428 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>precisionRate_rfr!B42</f>
         <v>0.32638888888888801</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>precisionRate_rfr!C42</f>
         <v>0.53289473684210498</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>precisionRate_rfr!G42</f>
         <v>0.48120300751879602</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>precisionRate_rfr!H42</f>
         <v>0.48466257668711599</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>precisionRate_rfr!E42</f>
         <v>0.50425404709345101</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>precisionRate_rfr!V42</f>
         <v>9.1017564082199708E-3</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>半導體!$B$12</f>
         <v>0.40268456375838901</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>半導體!$B$13</f>
         <v>0.41261554262238925</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>半導體!$B$14</f>
         <v>0.45807962529273949</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>半導體!$B$15</f>
         <v>0.57707811308421375</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>半導體!$B$16</f>
         <v>0.72535211267605604</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>precisionRate_rfr!B43</f>
         <v>0.49118198874296398</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>precisionRate_rfr!C43</f>
         <v>0.65952867357361677</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>precisionRate_rfr!G43</f>
         <v>0.57496334310850372</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f>precisionRate_rfr!H43</f>
         <v>0.60232683982683954</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>precisionRate_rfr!E43</f>
         <v>0.57970831893609276</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>precisionRate_rfr!V43</f>
         <v>0.16636473177574498</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>食品!$B$12</f>
         <v>0.42537313432835799</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>食品!$B$13</f>
         <v>0.50080645161290294</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>食品!$B$14</f>
         <v>0.52380313439244253</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>食品!$B$15</f>
         <v>0.69450619244204503</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>食品!$B$16</f>
         <v>0.80136986301369795</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>precisionRate_rfr!B44</f>
         <v>0.57536604020978999</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>precisionRate_rfr!C44</f>
         <v>0.70871609403254898</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>precisionRate_rfr!G44</f>
         <v>0.61507802472471751</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>precisionRate_rfr!H44</f>
         <v>0.66993464052287544</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>precisionRate_rfr!E44</f>
         <v>0.64694341530594857</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>precisionRate_rfr!V44</f>
         <v>0.30191035546478251</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>航運!$B$12</f>
         <v>0.32638888888888801</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>航運!$B$13</f>
         <v>0.49760914760914726</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>航運!$B$14</f>
         <v>0.53492063492063457</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>航運!$B$15</f>
         <v>0.642961876832844</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>航運!$B$16</f>
         <v>0.69047619047619002</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>precisionRate_rfr!B45</f>
         <v>0.68011636731596226</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>precisionRate_rfr!C45</f>
         <v>0.74674855491329473</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>precisionRate_rfr!G45</f>
         <v>0.69349641612415269</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>precisionRate_rfr!H45</f>
         <v>0.72912550691483746</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>precisionRate_rfr!E45</f>
         <v>0.70544497989372001</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>precisionRate_rfr!V45</f>
         <v>0.41332047331151578</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>通訊!$B$12</f>
         <v>0.5703125</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>通訊!$B$13</f>
         <v>0.60159266409266332</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>通訊!$B$14</f>
         <v>0.67721834496510458</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>通訊!$B$15</f>
         <v>0.70735607675906143</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>通訊!$B$16</f>
         <v>0.80838323353293395</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>precisionRate_rfr!B46</f>
         <v>0.80838323353293395</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>precisionRate_rfr!C46</f>
         <v>0.80487804878048697</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>precisionRate_rfr!G46</f>
         <v>0.75483870967741895</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>precisionRate_rfr!H46</f>
         <v>0.78985507246376796</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>precisionRate_rfr!E46</f>
         <v>0.771433230826577</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>precisionRate_rfr!V46</f>
         <v>0.54377935432991598</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>半導體!$C$12</f>
         <v>0.554838709677419</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>半導體!$C$13</f>
         <v>0.65421043924228606</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>半導體!$C$14</f>
         <v>0.69393100351717352</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>半導體!$C$15</f>
         <v>0.76575750233636752</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>半導體!$C$16</f>
         <v>0.784810126582278</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>食品!$C$12</f>
         <v>0.59285714285714197</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>食品!$C$13</f>
         <v>0.62318840579710122</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>食品!$C$14</f>
         <v>0.72399559713813899</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>食品!$C$15</f>
         <v>0.74090505767524328</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>食品!$C$16</f>
         <v>0.79245283018867896</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>航運!$C$12</f>
         <v>0.58461538461538398</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>航運!$C$13</f>
         <v>0.68167629813978969</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>航運!$C$14</f>
         <v>0.7425727317554236</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>航運!$C$15</f>
         <v>0.76400239729759156</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>航運!$C$16</f>
         <v>0.80487804878048697</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>通訊!$C$12</f>
         <v>0.53289473684210498</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>通訊!$C$13</f>
         <v>0.66332004349401896</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>通訊!$C$14</f>
         <v>0.70130247220839503</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>通訊!$C$15</f>
         <v>0.72041208791208744</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>通訊!$C$16</f>
         <v>0.75</v>
       </c>
@@ -12353,119 +18419,119 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>半導體!$G$12</f>
         <v>0.48120300751879602</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>半導體!$G$13</f>
         <v>0.52281746031745979</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>半導體!$G$14</f>
         <v>0.57569892473118256</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>半導體!$G$15</f>
         <v>0.64100719424460373</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>半導體!$G$16</f>
         <v>0.75182481751824803</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>食品!$G$12</f>
         <v>0.57258064516129004</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>食品!$G$13</f>
         <v>0.58484848484848417</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>食品!$G$14</f>
         <v>0.64171840912904798</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>食品!$G$15</f>
         <v>0.69419756221432127</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>食品!$G$16</f>
         <v>0.75483870967741895</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>航運!$G$12</f>
         <v>0.49473684210526298</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>航運!$G$13</f>
         <v>0.56704215116279</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>航運!$G$14</f>
         <v>0.60824197596090301</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>航運!$G$15</f>
         <v>0.66666666666666596</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>航運!$G$16</f>
         <v>0.71186440677966101</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>通訊!$G$12</f>
         <v>0.53896103896103897</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>通訊!$G$13</f>
         <v>0.6164659714009243</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>通訊!$G$14</f>
         <v>0.67535612535612499</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>通訊!$G$15</f>
         <v>0.70007522148548429</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>通訊!$G$16</f>
         <v>0.74576271186440601</v>
       </c>
@@ -12481,119 +18547,119 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>半導體!$H$12</f>
         <v>0.51366120218579203</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>半導體!$H$13</f>
         <v>0.54798302720297576</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>半導體!$H$14</f>
         <v>0.65119855269108951</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>半導體!$H$15</f>
         <v>0.67081939799331025</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>半導體!$H$16</f>
         <v>0.761290322580645</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>食品!$H$12</f>
         <v>0.48466257668711599</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>食品!$H$13</f>
         <v>0.61032790309106077</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>食品!$H$14</f>
         <v>0.64112644883219749</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>食品!$H$15</f>
         <v>0.72858049502855871</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>食品!$H$16</f>
         <v>0.78985507246376796</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>航運!$H$12</f>
         <v>0.51500000000000001</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>航運!$H$13</f>
         <v>0.59924242424242347</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>航運!$H$14</f>
         <v>0.67948717948717896</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f>航運!$H$15</f>
         <v>0.71990562403697922</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>航運!$H$16</f>
         <v>0.748571428571428</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>通訊!$H$12</f>
         <v>0.57446808510638303</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>通訊!$H$13</f>
         <v>0.67354101403875155</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>通訊!$H$14</f>
         <v>0.68669950738916197</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>通訊!$H$15</f>
         <v>0.73182309818531377</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>通訊!$H$16</f>
         <v>0.76543209876543195</v>
       </c>
@@ -12609,119 +18675,119 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>半導體!$D$12</f>
         <v>0.50847457627118597</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>半導體!$D$13</f>
         <v>0.53559322033898249</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>半導體!$D$14</f>
         <v>0.62648449210192503</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f>半導體!$D$15</f>
         <v>0.66949152542372792</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>半導體!$D$16</f>
         <v>0.75170068027210801</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>食品!$D$12</f>
         <v>0.53898305084745701</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f>食品!$D$13</f>
         <v>0.59745762711864381</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f>食品!$D$14</f>
         <v>0.64067796610169447</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f>食品!$D$15</f>
         <v>0.70847457627118604</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f>食品!$D$16</f>
         <v>0.77133105802047697</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>航運!$D$12</f>
         <v>0.50847457627118597</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>航運!$D$13</f>
         <v>0.58466575606620574</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f>航運!$D$14</f>
         <v>0.66124750747756655</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>航運!$D$15</f>
         <v>0.70310734463276769</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>航運!$D$16</f>
         <v>0.72203389830508402</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>通訊!$D$12</f>
         <v>0.55593220338982996</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>通訊!$D$13</f>
         <v>0.64915254237288122</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>通訊!$D$14</f>
         <v>0.69915026415447157</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>通訊!$D$15</f>
         <v>0.71407606448945793</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>通訊!$D$16</f>
         <v>0.72881355932203296</v>
       </c>
@@ -12736,5 +18802,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>